--- a/Field_Data_Biological/Length/1023GOLD_Length_Master.xlsx
+++ b/Field_Data_Biological/Length/1023GOLD_Length_Master.xlsx
@@ -1265,8 +1265,8 @@
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),571.2)</f>
-        <v>571.20000000000005</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),57.12)</f>
+        <v>57.12</v>
       </c>
       <c r="I26" s="11"/>
     </row>
